--- a/Assets/Designs/General/Achievement.xlsx
+++ b/Assets/Designs/General/Achievement.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Icon_Laser</t>
+  </si>
+  <si>
+    <t>Back To The Future</t>
+  </si>
+  <si>
+    <t>Send yourself a futrue text</t>
   </si>
 </sst>
 </file>
@@ -239,18 +245,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -577,7 +577,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,16 +601,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -619,96 +619,93 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,13 +1019,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="19.7777777777778" customWidth="1"/>
@@ -1050,7 +1047,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1067,7 +1064,7 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1120,6 +1117,23 @@
       </c>
       <c r="E5" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
